--- a/Collections/Евро/Ireland/#EURO#Ireland#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Ireland/#EURO#Ireland#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -2372,7 +2372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4988,11 +4988,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5085,8 +5085,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
